--- a/ocms/src/test/resources/TestData/OCMChatTransferReport.xlsx
+++ b/ocms/src/test/resources/TestData/OCMChatTransferReport.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18255" windowHeight="8040" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -18,8 +13,10 @@
     <sheet name="ShowInNewPageDateRange" sheetId="4" r:id="rId4"/>
     <sheet name="ExportReport" sheetId="5" r:id="rId5"/>
     <sheet name="ExportReportDateRange" sheetId="6" r:id="rId6"/>
+    <sheet name="AdvanceSearch" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="28">
   <si>
     <t>Report Channel</t>
   </si>
@@ -46,9 +43,6 @@
     <t>Single Date</t>
   </si>
   <si>
-    <t>random.str</t>
-  </si>
-  <si>
     <t>Start Date</t>
   </si>
   <si>
@@ -61,23 +55,80 @@
     <t>Chat</t>
   </si>
   <si>
-    <t>OCM Chat Agent Performance Report</t>
-  </si>
-  <si>
     <t>OCM Chat Transfer Report</t>
+  </si>
+  <si>
+    <t>10-06-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>11-06-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>Column Name</t>
+  </si>
+  <si>
+    <t>Column Type</t>
+  </si>
+  <si>
+    <t>Search String</t>
+  </si>
+  <si>
+    <t>Is equal to</t>
+  </si>
+  <si>
+    <t>UCID</t>
+  </si>
+  <si>
+    <t>TCommWQ200610101730_3001</t>
+  </si>
+  <si>
+    <t>Contains</t>
+  </si>
+  <si>
+    <t>Starts with</t>
+  </si>
+  <si>
+    <t>Ends with</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Advanced Search</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>DeleteReason</t>
+  </si>
+  <si>
+    <t>Deleted</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -100,9 +151,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,16 +466,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -432,22 +485,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" customWidth="1"/>
     <col min="2" max="2" width="34.7109375" customWidth="1"/>
     <col min="3" max="3" width="18.140625" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="8" max="8" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,27 +513,123 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -491,7 +642,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,16 +669,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -537,10 +688,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,7 +703,7 @@
     <col min="5" max="5" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -563,27 +714,33 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
+      <c r="F2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -596,7 +753,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,16 +780,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -644,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,27 +825,100 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/OCMChatTransferReport.xlsx
+++ b/ocms/src/test/resources/TestData/OCMChatTransferReport.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18255" windowHeight="8040" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18255" windowHeight="8040" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -14,9 +14,9 @@
     <sheet name="ExportReport" sheetId="5" r:id="rId5"/>
     <sheet name="ExportReportDateRange" sheetId="6" r:id="rId6"/>
     <sheet name="AdvanceSearch" sheetId="7" r:id="rId7"/>
+    <sheet name="Queries" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="32">
   <si>
     <t>Report Channel</t>
   </si>
@@ -110,6 +110,28 @@
   </si>
   <si>
     <t>Deleted</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-06-2020 00:00:00
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-06-2020 00:00:00
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT  C.SessionID AS [UCID],C.CLID AS [Caller ID], C.LASTMENU_1 AS [Last Menu], 
+C.LASTMENU_2 AS [Last Menu 1], C.LASTMENU_3 AS [Last Menu 2],C.LASTMENU_4 AS [Last Menu 3],
+C.DNIS AS [Hotline Number], C.CIF AS [CIN],C.TRANSFER_VDN as [Transferred Vdn], 
+C.NRIC AS [User ID], FORMAT([dbo].[VARCHARTODATETIME] (C.STARTDATETIME),'dd/MM/yyyy HH:mm:ss') as [Start Date Time],
+FORMAT([dbo].[VARCHARTODATETIME] (C.ENDDATETIME),'dd/MM/yyyy HH:mm:ss') as [End Date Time]
+FROM CHAT_CALL_HISTORY C with(nolock)  INNER JOIN TMAC_Interactions T ON T.SessionId = C.SessionID
+where 1=1 AND TR_DIS_FLAG ='AT' AND  ClosedDateTime&gt;='ReportBeforeDate' AND ClosedDateTime&lt;='ReportAfterDate'
+order by STARTDATETIME  ASC;
+</t>
   </si>
 </sst>
 </file>
@@ -151,11 +173,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -216,7 +247,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -251,7 +282,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -428,7 +459,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -488,7 +519,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,7 +721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -924,4 +955,67 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" customWidth="1"/>
+    <col min="6" max="6" width="38.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ocms/src/test/resources/TestData/OCMChatTransferReport.xlsx
+++ b/ocms/src/test/resources/TestData/OCMChatTransferReport.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840521A1-E5A0-424F-8750-DDB3CF4B3750}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18255" windowHeight="8040" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -26,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="31">
   <si>
     <t>Report Channel</t>
   </si>
@@ -113,14 +119,6 @@
   </si>
   <si>
     <t>Query</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10-06-2020 00:00:00
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11-06-2020 00:00:00
-</t>
   </si>
   <si>
     <t xml:space="preserve">SELECT  C.SessionID AS [UCID],C.CLID AS [Caller ID], C.LASTMENU_1 AS [Last Menu], 
@@ -133,11 +131,14 @@
 order by STARTDATETIME  ASC;
 </t>
   </si>
+  <si>
+    <t xml:space="preserve">DeleteReason </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -178,11 +179,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -459,29 +460,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.1796875" customWidth="1"/>
+    <col min="2" max="2" width="33.81640625" customWidth="1"/>
+    <col min="3" max="3" width="20.453125" customWidth="1"/>
+    <col min="4" max="4" width="17.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,7 +496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -515,25 +516,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" customWidth="1"/>
+    <col min="2" max="2" width="24.1796875" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="27.5703125" customWidth="1"/>
+    <col min="8" max="8" width="27.54296875" customWidth="1"/>
+    <col min="9" max="9" width="12.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,8 +560,11 @@
       <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -584,8 +589,11 @@
       <c r="H2" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -611,7 +619,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -637,7 +645,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -669,22 +677,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.26953125" customWidth="1"/>
+    <col min="2" max="2" width="33.453125" customWidth="1"/>
+    <col min="3" max="3" width="23.7265625" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -698,7 +706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -718,23 +726,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F1" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.453125" customWidth="1"/>
+    <col min="2" max="2" width="36.453125" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" customWidth="1"/>
+    <col min="5" max="5" width="22.453125" customWidth="1"/>
+    <col min="6" max="6" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -754,7 +763,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -780,22 +789,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.81640625" customWidth="1"/>
+    <col min="2" max="2" width="32.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.26953125" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -808,8 +818,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -821,6 +834,9 @@
       </c>
       <c r="D2" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -829,23 +845,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.54296875" customWidth="1"/>
+    <col min="2" max="2" width="31.1796875" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" customWidth="1"/>
+    <col min="4" max="4" width="19.54296875" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -861,8 +878,11 @@
       <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -877,6 +897,9 @@
       </c>
       <c r="E2" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -885,16 +908,25 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.90625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -923,7 +955,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -948,7 +980,7 @@
       <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -958,24 +990,23 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" customWidth="1"/>
-    <col min="6" max="6" width="38.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -995,24 +1026,24 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:6" ht="377" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/OCMChatTransferReport.xlsx
+++ b/ocms/src/test/resources/TestData/OCMChatTransferReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840521A1-E5A0-424F-8750-DDB3CF4B3750}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E06E3B-0341-406D-B495-7B85B8623268}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="43">
   <si>
     <t>Report Channel</t>
   </si>
@@ -133,6 +133,42 @@
   </si>
   <si>
     <t xml:space="preserve">DeleteReason </t>
+  </si>
+  <si>
+    <t>01-03-2021 00:00:00</t>
+  </si>
+  <si>
+    <t>01-04-2021 00:00:00</t>
+  </si>
+  <si>
+    <t>Last Menu</t>
+  </si>
+  <si>
+    <t>Is not equal to</t>
+  </si>
+  <si>
+    <t>Agent</t>
+  </si>
+  <si>
+    <t>net</t>
+  </si>
+  <si>
+    <t>Does not contain</t>
+  </si>
+  <si>
+    <t>Ser</t>
+  </si>
+  <si>
+    <t>Wifi</t>
+  </si>
+  <si>
+    <t>Issue</t>
+  </si>
+  <si>
+    <t>18-11-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>18-05-2021 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -174,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -188,6 +224,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -909,10 +948,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -922,8 +961,8 @@
     <col min="3" max="3" width="10.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -982,6 +1021,151 @@
       </c>
       <c r="I2" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -993,8 +1177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1037,10 +1221,10 @@
         <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>29</v>

--- a/ocms/src/test/resources/TestData/OCMChatTransferReport.xlsx
+++ b/ocms/src/test/resources/TestData/OCMChatTransferReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E06E3B-0341-406D-B495-7B85B8623268}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFFBB07-C8EF-46ED-B3B4-0809BB0CFAD5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -513,15 +513,15 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.1796875" customWidth="1"/>
-    <col min="2" max="2" width="33.81640625" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" customWidth="1"/>
+    <col min="1" max="1" width="21.21875" customWidth="1"/>
+    <col min="2" max="2" width="33.77734375" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -535,7 +535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -562,19 +562,19 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" customWidth="1"/>
-    <col min="2" max="2" width="24.1796875" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" customWidth="1"/>
-    <col min="4" max="4" width="15.81640625" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="24.21875" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="27.54296875" customWidth="1"/>
-    <col min="9" max="9" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.5546875" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -603,7 +603,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -632,7 +632,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -658,7 +658,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -684,7 +684,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -723,15 +723,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.26953125" customWidth="1"/>
-    <col min="2" max="2" width="33.453125" customWidth="1"/>
-    <col min="3" max="3" width="23.7265625" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" customWidth="1"/>
+    <col min="1" max="1" width="23.21875" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -745,7 +745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -772,17 +772,17 @@
       <selection activeCell="F1" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.453125" customWidth="1"/>
-    <col min="2" max="2" width="36.453125" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="2" max="2" width="36.44140625" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="18.54296875" customWidth="1"/>
-    <col min="5" max="5" width="22.453125" customWidth="1"/>
-    <col min="6" max="6" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -802,7 +802,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -835,16 +835,16 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" customWidth="1"/>
-    <col min="2" max="2" width="32.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.77734375" customWidth="1"/>
+    <col min="2" max="2" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -861,7 +861,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -887,21 +887,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.54296875" customWidth="1"/>
-    <col min="2" max="2" width="31.1796875" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" customWidth="1"/>
-    <col min="4" max="4" width="19.54296875" customWidth="1"/>
-    <col min="5" max="5" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" customWidth="1"/>
+    <col min="2" max="2" width="31.21875" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -918,10 +918,10 @@
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -937,7 +937,7 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -954,18 +954,18 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -994,7 +994,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>8</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
@@ -1177,20 +1177,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="377" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
